--- a/config_Release/qhb_help_config.xlsx
+++ b/config_Release/qhb_help_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id|</t>
   </si>
@@ -32,18 +32,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2、踩雷后自己扣除该红包总额的鲸币，扣除的鲸币存入聚宝盆；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>发红包：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1、发的红包额度不能超过自身携带的鲸币；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2、可自己设定发红包的雷号；</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -68,23 +60,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>聚宝盆：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、所有踩雷的鲸币都会放入聚宝盆；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>5、发的红包如果在2分钟没有被抢完，那么剩余未被抢的金额将回退给发红包的人；</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>info|</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、但玩家踩雷后，系统会自动发送该红包总额的鲸币给发红包玩家。\n</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -109,11 +89,13 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3、红包雨时，在线就可获奖，请千万登录游戏等待红包雨奖励。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、聚宝盆在3月1日12:00把所有鲸币变成终极红包雨发放给所有在线用户，具体时间敬请期待；</t>
+    <t>3、但玩家踩雷后，系统会自动发送该红包总额的金币给发红包玩家。\n</t>
+  </si>
+  <si>
+    <t>1、发的红包额度不能超过自身携带的金币；</t>
+  </si>
+  <si>
+    <t>2、踩雷后自己扣除该红包总额的金币；</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +202,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -255,6 +237,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -564,7 +549,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -578,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -614,8 +599,8 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -626,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="7"/>
@@ -637,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -645,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -653,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -661,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -669,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -677,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -685,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -693,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -701,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -709,7 +694,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -717,40 +702,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
